--- a/team_specific_matrix/Cleveland St._B.xlsx
+++ b/team_specific_matrix/Cleveland St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1838235294117647</v>
+        <v>0.2017045454545454</v>
       </c>
       <c r="C2">
-        <v>0.5514705882352942</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02205882352941177</v>
+        <v>0.02556818181818182</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.125</v>
+        <v>0.1335227272727273</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1176470588235294</v>
+        <v>0.1164772727272727</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0124223602484472</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C3">
-        <v>0.05590062111801242</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04347826086956522</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7018633540372671</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1863354037267081</v>
+        <v>0.1919191919191919</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07317073170731707</v>
+        <v>0.06</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6829268292682927</v>
+        <v>0.72</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2439024390243902</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06043956043956044</v>
+        <v>0.06140350877192982</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02197802197802198</v>
+        <v>0.02192982456140351</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02747252747252747</v>
+        <v>0.04824561403508772</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2362637362637363</v>
+        <v>0.2324561403508772</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02747252747252747</v>
+        <v>0.02192982456140351</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2142857142857143</v>
+        <v>0.2017543859649123</v>
       </c>
       <c r="R6">
-        <v>0.06043956043956044</v>
+        <v>0.06140350877192982</v>
       </c>
       <c r="S6">
-        <v>0.3516483516483517</v>
+        <v>0.3508771929824561</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1483870967741935</v>
+        <v>0.1386138613861386</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03225806451612903</v>
+        <v>0.02475247524752475</v>
       </c>
       <c r="E7">
-        <v>0.006451612903225806</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="F7">
-        <v>0.06451612903225806</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1225806451612903</v>
+        <v>0.1237623762376238</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01935483870967742</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1612903225806452</v>
+        <v>0.1485148514851485</v>
       </c>
       <c r="R7">
-        <v>0.09032258064516129</v>
+        <v>0.07920792079207921</v>
       </c>
       <c r="S7">
-        <v>0.3548387096774194</v>
+        <v>0.3960396039603961</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1221374045801527</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0178117048346056</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.001941747572815534</v>
       </c>
       <c r="F8">
-        <v>0.08396946564885496</v>
+        <v>0.07572815533980583</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1374045801526718</v>
+        <v>0.1339805825242718</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01272264631043257</v>
+        <v>0.01553398058252427</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2213740458015267</v>
+        <v>0.2058252427184466</v>
       </c>
       <c r="R8">
-        <v>0.05343511450381679</v>
+        <v>0.05436893203883495</v>
       </c>
       <c r="S8">
-        <v>0.3511450381679389</v>
+        <v>0.3766990291262136</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1176470588235294</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05228758169934641</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07843137254901961</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1633986928104575</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0130718954248366</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1895424836601307</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="R9">
-        <v>0.0457516339869281</v>
+        <v>0.05291005291005291</v>
       </c>
       <c r="S9">
-        <v>0.3398692810457516</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1104536489151874</v>
+        <v>0.1135303265940902</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01873767258382643</v>
+        <v>0.01788491446345257</v>
       </c>
       <c r="E10">
-        <v>0.0009861932938856016</v>
+        <v>0.001555209953343701</v>
       </c>
       <c r="F10">
-        <v>0.06903353057199212</v>
+        <v>0.06531881804043546</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.131163708086785</v>
+        <v>0.1298600311041991</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01282051282051282</v>
+        <v>0.01632970451010887</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2001972386587771</v>
+        <v>0.2045101088646967</v>
       </c>
       <c r="R10">
-        <v>0.09171597633136094</v>
+        <v>0.08709175738724728</v>
       </c>
       <c r="S10">
-        <v>0.3648915187376726</v>
+        <v>0.3639191290824261</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.00423728813559322</v>
+        <v>0.003184713375796179</v>
       </c>
       <c r="G11">
-        <v>0.1610169491525424</v>
+        <v>0.1496815286624204</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09745762711864407</v>
+        <v>0.09235668789808917</v>
       </c>
       <c r="K11">
-        <v>0.2457627118644068</v>
+        <v>0.2420382165605096</v>
       </c>
       <c r="L11">
-        <v>0.4703389830508475</v>
+        <v>0.4872611464968153</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0211864406779661</v>
+        <v>0.02547770700636943</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7699115044247787</v>
+        <v>0.7612903225806451</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1504424778761062</v>
+        <v>0.167741935483871</v>
       </c>
       <c r="K12">
-        <v>0.008849557522123894</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="L12">
-        <v>0.01769911504424779</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05309734513274336</v>
+        <v>0.05161290322580645</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6714285714285714</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08333333333333333</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01257861635220126</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1572327044025157</v>
+        <v>0.1414141414141414</v>
       </c>
       <c r="I15">
-        <v>0.1006289308176101</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="J15">
-        <v>0.3270440251572327</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K15">
-        <v>0.1006289308176101</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05660377358490566</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2452830188679245</v>
+        <v>0.2676767676767677</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02352941176470588</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1764705882352941</v>
+        <v>0.1619047619047619</v>
       </c>
       <c r="I16">
-        <v>0.06470588235294118</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J16">
-        <v>0.3294117647058823</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="K16">
-        <v>0.1058823529411765</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.07647058823529412</v>
+        <v>0.08095238095238096</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07058823529411765</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1529411764705882</v>
+        <v>0.1523809523809524</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02638522427440633</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.187335092348285</v>
+        <v>0.1873684210526316</v>
       </c>
       <c r="I17">
-        <v>0.1055408970976253</v>
+        <v>0.0968421052631579</v>
       </c>
       <c r="J17">
-        <v>0.4221635883905013</v>
+        <v>0.4294736842105263</v>
       </c>
       <c r="K17">
-        <v>0.07387862796833773</v>
+        <v>0.08</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01846965699208443</v>
+        <v>0.01894736842105263</v>
       </c>
       <c r="N17">
-        <v>0.002638522427440633</v>
+        <v>0.002105263157894737</v>
       </c>
       <c r="O17">
-        <v>0.03430079155672823</v>
+        <v>0.03368421052631579</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.129287598944591</v>
+        <v>0.1305263157894737</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03448275862068965</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2137931034482759</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="I18">
-        <v>0.08275862068965517</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J18">
-        <v>0.3586206896551724</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="K18">
-        <v>0.08275862068965517</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="N18">
-        <v>0.006896551724137931</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="O18">
-        <v>0.05517241379310345</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1310344827586207</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.008555133079847909</v>
+        <v>0.00959409594095941</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2262357414448669</v>
+        <v>0.2413284132841328</v>
       </c>
       <c r="I19">
-        <v>0.07129277566539924</v>
+        <v>0.06863468634686347</v>
       </c>
       <c r="J19">
-        <v>0.3450570342205323</v>
+        <v>0.3402214022140221</v>
       </c>
       <c r="K19">
-        <v>0.09695817490494296</v>
+        <v>0.1040590405904059</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03231939163498099</v>
+        <v>0.02730627306273063</v>
       </c>
       <c r="N19">
-        <v>0.0009505703422053232</v>
+        <v>0.0007380073800738007</v>
       </c>
       <c r="O19">
-        <v>0.06273764258555133</v>
+        <v>0.05682656826568266</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.155893536121673</v>
+        <v>0.1512915129151292</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Cleveland St._B.xlsx
+++ b/team_specific_matrix/Cleveland St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2017045454545454</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="C2">
-        <v>0.5227272727272727</v>
+        <v>0.5324675324675324</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02556818181818182</v>
+        <v>0.02337662337662338</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1335227272727273</v>
+        <v>0.1298701298701299</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1164772727272727</v>
+        <v>0.1194805194805195</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0101010101010101</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="C3">
-        <v>0.06060606060606061</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05555555555555555</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6818181818181818</v>
+        <v>0.6940639269406392</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1919191919191919</v>
+        <v>0.1872146118721461</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.72</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.22</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06140350877192982</v>
+        <v>0.06</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02192982456140351</v>
+        <v>0.02</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04824561403508772</v>
+        <v>0.044</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2324561403508772</v>
+        <v>0.248</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02192982456140351</v>
+        <v>0.02</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2017543859649123</v>
+        <v>0.2</v>
       </c>
       <c r="R6">
-        <v>0.06140350877192982</v>
+        <v>0.06</v>
       </c>
       <c r="S6">
-        <v>0.3508771929824561</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1386138613861386</v>
+        <v>0.1359649122807018</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02475247524752475</v>
+        <v>0.02192982456140351</v>
       </c>
       <c r="E7">
-        <v>0.004950495049504951</v>
+        <v>0.004385964912280702</v>
       </c>
       <c r="F7">
-        <v>0.06930693069306931</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1237623762376238</v>
+        <v>0.1271929824561404</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01485148514851485</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1485148514851485</v>
+        <v>0.1535087719298246</v>
       </c>
       <c r="R7">
-        <v>0.07920792079207921</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="S7">
-        <v>0.3960396039603961</v>
+        <v>0.3859649122807017</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.116504854368932</v>
+        <v>0.1085814360770578</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01941747572815534</v>
+        <v>0.01751313485113835</v>
       </c>
       <c r="E8">
-        <v>0.001941747572815534</v>
+        <v>0.001751313485113835</v>
       </c>
       <c r="F8">
-        <v>0.07572815533980583</v>
+        <v>0.08056042031523643</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1339805825242718</v>
+        <v>0.1348511383537653</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01553398058252427</v>
+        <v>0.01751313485113835</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2058252427184466</v>
+        <v>0.2031523642732049</v>
       </c>
       <c r="R8">
-        <v>0.05436893203883495</v>
+        <v>0.05779334500875657</v>
       </c>
       <c r="S8">
-        <v>0.3766990291262136</v>
+        <v>0.3782837127845884</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1111111111111111</v>
+        <v>0.1161616161616162</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04761904761904762</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.164021164021164</v>
+        <v>0.1616161616161616</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01587301587301587</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1798941798941799</v>
+        <v>0.1767676767676768</v>
       </c>
       <c r="R9">
-        <v>0.05291005291005291</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="S9">
-        <v>0.3333333333333333</v>
+        <v>0.3383838383838384</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1135303265940902</v>
+        <v>0.1186079545454545</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01788491446345257</v>
+        <v>0.01704545454545454</v>
       </c>
       <c r="E10">
-        <v>0.001555209953343701</v>
+        <v>0.002130681818181818</v>
       </c>
       <c r="F10">
-        <v>0.06531881804043546</v>
+        <v>0.06534090909090909</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1298600311041991</v>
+        <v>0.1292613636363636</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01632970451010887</v>
+        <v>0.01633522727272727</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2045101088646967</v>
+        <v>0.2052556818181818</v>
       </c>
       <c r="R10">
-        <v>0.08709175738724728</v>
+        <v>0.08522727272727272</v>
       </c>
       <c r="S10">
-        <v>0.3639191290824261</v>
+        <v>0.3607954545454545</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.003184713375796179</v>
+        <v>0.002906976744186046</v>
       </c>
       <c r="G11">
-        <v>0.1496815286624204</v>
+        <v>0.1511627906976744</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09235668789808917</v>
+        <v>0.0872093023255814</v>
       </c>
       <c r="K11">
-        <v>0.2420382165605096</v>
+        <v>0.2383720930232558</v>
       </c>
       <c r="L11">
-        <v>0.4872611464968153</v>
+        <v>0.4941860465116279</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02547770700636943</v>
+        <v>0.02616279069767442</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7612903225806451</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.167741935483871</v>
+        <v>0.1609195402298851</v>
       </c>
       <c r="K12">
-        <v>0.006451612903225806</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="L12">
-        <v>0.01290322580645161</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05161290322580645</v>
+        <v>0.04597701149425287</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6714285714285714</v>
+        <v>0.65</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2571428571428571</v>
+        <v>0.275</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07142857142857142</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0101010101010101</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1414141414141414</v>
+        <v>0.1581395348837209</v>
       </c>
       <c r="I15">
-        <v>0.101010101010101</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="J15">
-        <v>0.3333333333333333</v>
+        <v>0.3302325581395349</v>
       </c>
       <c r="K15">
-        <v>0.09090909090909091</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05555555555555555</v>
+        <v>0.05581395348837209</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2676767676767677</v>
+        <v>0.2697674418604651</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02380952380952381</v>
+        <v>0.02164502164502164</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1619047619047619</v>
+        <v>0.1601731601731602</v>
       </c>
       <c r="I16">
-        <v>0.07142857142857142</v>
+        <v>0.06926406926406926</v>
       </c>
       <c r="J16">
-        <v>0.3285714285714286</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="K16">
-        <v>0.1142857142857143</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.08095238095238096</v>
+        <v>0.0735930735930736</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06666666666666667</v>
+        <v>0.0735930735930736</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1523809523809524</v>
+        <v>0.1558441558441558</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02105263157894737</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1873684210526316</v>
+        <v>0.1942307692307692</v>
       </c>
       <c r="I17">
-        <v>0.0968421052631579</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="J17">
-        <v>0.4294736842105263</v>
+        <v>0.425</v>
       </c>
       <c r="K17">
-        <v>0.08</v>
+        <v>0.08076923076923077</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01894736842105263</v>
+        <v>0.02115384615384616</v>
       </c>
       <c r="N17">
-        <v>0.002105263157894737</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="O17">
-        <v>0.03368421052631579</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1305263157894737</v>
+        <v>0.1346153846153846</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02777777777777778</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2166666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I18">
-        <v>0.08333333333333333</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="J18">
-        <v>0.3555555555555556</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="K18">
-        <v>0.08333333333333333</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03333333333333333</v>
+        <v>0.03535353535353535</v>
       </c>
       <c r="N18">
-        <v>0.005555555555555556</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="O18">
-        <v>0.06111111111111111</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1333333333333333</v>
+        <v>0.1313131313131313</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.00959409594095941</v>
+        <v>0.009478672985781991</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2413284132841328</v>
+        <v>0.2417061611374408</v>
       </c>
       <c r="I19">
-        <v>0.06863468634686347</v>
+        <v>0.06635071090047394</v>
       </c>
       <c r="J19">
-        <v>0.3402214022140221</v>
+        <v>0.3405551794177387</v>
       </c>
       <c r="K19">
-        <v>0.1040590405904059</v>
+        <v>0.1056194989844279</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02730627306273063</v>
+        <v>0.02979011509817197</v>
       </c>
       <c r="N19">
-        <v>0.0007380073800738007</v>
+        <v>0.0006770480704129993</v>
       </c>
       <c r="O19">
-        <v>0.05682656826568266</v>
+        <v>0.05619498984427895</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1512915129151292</v>
+        <v>0.1496276235612728</v>
       </c>
     </row>
   </sheetData>
